--- a/bench_blobwar.xlsx
+++ b/bench_blobwar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A396C7FD-7A5F-4CB5-8AEC-93E928CD14FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B5B5D-68BB-471F-96F0-A1A810B55AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8AED214-7693-49BD-B8ED-34FA892F7F75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C8AED214-7693-49BD-B8ED-34FA892F7F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,19 +141,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -531,16 +531,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,20 +563,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF02299-5867-416C-85DD-D55E679854FB}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="102" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,28 +900,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="37" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -966,14 +966,14 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
-        <v>0.42</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.47</v>
+      <c r="A3" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.33</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -984,7 +984,7 @@
       <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="30">
         <v>0.6</v>
       </c>
       <c r="H3" s="6">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
@@ -1016,7 +1016,7 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="30">
         <v>0.4</v>
       </c>
       <c r="H4" s="5">
@@ -1048,7 +1048,7 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="30">
         <v>0.6</v>
       </c>
       <c r="H5" s="6">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -1080,7 +1080,7 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
       <c r="H6" s="5">
@@ -1103,7 +1103,7 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="35"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -1120,14 +1120,14 @@
         <v>1</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H8" s="35"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -1140,23 +1140,23 @@
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P9" s="1"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="22"/>
@@ -1186,18 +1186,18 @@
       <c r="G11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="46" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -1297,7 +1297,7 @@
         <v>0.25</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="35"/>
+      <c r="Q13" s="29"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="35"/>
+      <c r="Q15" s="29"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -1420,28 +1420,28 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="37" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="J17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="46" t="s">
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="35"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="29"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="35"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -1705,16 +1705,16 @@
       <c r="G23" s="20">
         <v>0</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40" t="s">
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1752,16 +1752,16 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="I25" s="5">
         <v>1</v>
       </c>
@@ -1987,38 +1987,38 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="40" t="s">
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="41"/>
-      <c r="R31" s="37" t="s">
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="R31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="40" t="s">
+      <c r="S31" s="36"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="41"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="39"/>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
       <c r="I32" s="9" t="s">
         <v>3</v>
       </c>
@@ -2346,38 +2346,38 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J38" s="37" t="s">
+      <c r="J38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="40" t="s">
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="R38" s="37" t="s">
+      <c r="N38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="R38" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="40" t="s">
+      <c r="S38" s="36"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="40"/>
-      <c r="W38" s="41"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="39"/>
     </row>
     <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
       <c r="I39" s="9" t="s">
         <v>3</v>
       </c>
@@ -2532,13 +2532,13 @@
       <c r="Q41" s="5">
         <v>2</v>
       </c>
-      <c r="R41" s="30">
-        <v>0</v>
-      </c>
-      <c r="S41" s="31">
-        <v>1</v>
-      </c>
-      <c r="T41" s="32">
+      <c r="R41" s="44">
+        <v>0</v>
+      </c>
+      <c r="S41" s="45">
+        <v>1</v>
+      </c>
+      <c r="T41" s="46">
         <v>0</v>
       </c>
       <c r="U41" s="17">
@@ -2650,13 +2650,13 @@
       <c r="L43" s="20">
         <v>0</v>
       </c>
-      <c r="M43" s="27">
-        <v>0</v>
-      </c>
-      <c r="N43" s="28">
-        <v>1</v>
-      </c>
-      <c r="O43" s="29">
+      <c r="M43" s="41">
+        <v>0</v>
+      </c>
+      <c r="N43" s="42">
+        <v>1</v>
+      </c>
+      <c r="O43" s="43">
         <v>0</v>
       </c>
       <c r="Q43" s="5">
@@ -2706,23 +2706,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="U31:W31"/>
     <mergeCell ref="R38:T38"/>
     <mergeCell ref="U38:W38"/>
@@ -2734,6 +2717,23 @@
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="R31:T31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
